--- a/FDA_Thesis_Datasets/Datasets/FDA_Approved_Companion_Diagnostic_Devices .xlsx
+++ b/FDA_Thesis_Datasets/Datasets/FDA_Approved_Companion_Diagnostic_Devices .xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawacoulibaly/Documents/GitHub/HIVE-Lab/FDA_Thesis_Datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8AD918A1-C197-884C-B7CE-DA3E4E78A39B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB5128-760A-AA45-A249-9581C4FDC845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="500" windowWidth="28040" windowHeight="16260"/>
+    <workbookView xWindow="4920" yWindow="500" windowWidth="23140" windowHeight="16020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA_Approved_Companion_Diagnost" sheetId="1" r:id="rId1"/>
+    <sheet name="Breast_Cancer" sheetId="2" r:id="rId2"/>
+    <sheet name="Ovarian_Cancer" sheetId="4" r:id="rId3"/>
+    <sheet name="Pancreatic_Cancer" sheetId="5" r:id="rId4"/>
+    <sheet name="Lung_Cancer" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$A$1:$A$208</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="592">
   <si>
     <t>Diagnostic Name</t>
   </si>
@@ -729,12 +737,1419 @@
     <t>Breast Cancer
 Verzenio (abemaciclib) - NDA 208716</t>
   </si>
+  <si>
+    <t>Breast Cancer</t>
+  </si>
+  <si>
+    <t>Ovarian Cancer</t>
+  </si>
+  <si>
+    <t>Metastatic castrate resistant prostate cancer (mCRPC)</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>cervical cancer</t>
+  </si>
+  <si>
+    <t>head and neck squamous cell carcinoma (HNSCC)</t>
+  </si>
+  <si>
+    <t>esophageal squamous cell carcinoma (ESCC)</t>
+  </si>
+  <si>
+    <t>triple-negative breast cancer (TNBC)</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>Solid tumors (TMB ≥ 10 mutations per megabase)</t>
+  </si>
+  <si>
+    <t>Solid tumors (NTRK1/2/3 fusions)</t>
+  </si>
+  <si>
+    <t>Gastric and gastroesophogeal cancer</t>
+  </si>
+  <si>
+    <t>Metastatic castrate resistant prostate cancer (mCRPC) (plasma)</t>
+  </si>
+  <si>
+    <t>Device_Indication</t>
+  </si>
+  <si>
+    <t>Diagnostic_Test</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Lynparza (olaparib)</t>
+  </si>
+  <si>
+    <t>Premarket_Submission</t>
+  </si>
+  <si>
+    <t>Biomarker</t>
+  </si>
+  <si>
+    <t>BRCA</t>
+  </si>
+  <si>
+    <t>HER2</t>
+  </si>
+  <si>
+    <t>PGR (Hormone Receptor)</t>
+  </si>
+  <si>
+    <t>ESR (Hormone Receptor)</t>
+  </si>
+  <si>
+    <t>BRCA, Genomic Instability (Homologous Recombination Deficiency)</t>
+  </si>
+  <si>
+    <t>Homologous Recombination Repair</t>
+  </si>
+  <si>
+    <t>PPP2R2A</t>
+  </si>
+  <si>
+    <t>Talzenna (talazoparib)</t>
+  </si>
+  <si>
+    <t>Herceptin (trastuzumab)</t>
+  </si>
+  <si>
+    <t>NDA</t>
+  </si>
+  <si>
+    <t>BLA</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Perjeta (pertuzumab)</t>
+  </si>
+  <si>
+    <t>Kadcyla (ado-trastuzumab emtansine)</t>
+  </si>
+  <si>
+    <t>PIK3CA</t>
+  </si>
+  <si>
+    <t>Indication and Usage, Dosage and Administration, Adverse Reactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Piqray (alpelisib)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Clinical Studies</t>
+  </si>
+  <si>
+    <t>P940005</t>
+  </si>
+  <si>
+    <t>Herceptin (trastuzumab</t>
+  </si>
+  <si>
+    <t>Submission_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissue and Plasma </t>
+  </si>
+  <si>
+    <t>PIQRAY (alpelisib)</t>
+  </si>
+  <si>
+    <t>Verzenio (abemaciclib)</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Therapeutic Area*</t>
+  </si>
+  <si>
+    <t>Biomarker†</t>
+  </si>
+  <si>
+    <t>Labeling Sections</t>
+  </si>
+  <si>
+    <t>Abemaciclib (1)</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Adverse Reactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Abemaciclib (2)</t>
+  </si>
+  <si>
+    <t>ERBB2 (HER2)</t>
+  </si>
+  <si>
+    <t>Ado-Trastuzumab Emtansine</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Adverse Reactions, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Afatinib</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Adverse Reactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Alectinib</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>HLA-B</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Alpelisib (1) </t>
+  </si>
+  <si>
+    <t>Alpelisib (2)</t>
+  </si>
+  <si>
+    <t>Alpelisib (3)</t>
+  </si>
+  <si>
+    <t>Amivantamab-vmjw</t>
+  </si>
+  <si>
+    <t>Anastrozole</t>
+  </si>
+  <si>
+    <t>ESR, PGR (Hormone Receptor)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Adverse Reactions, Drug Interactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Arsenic Trioxide</t>
+  </si>
+  <si>
+    <t>PML-RARA</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Atezolizumab (1)</t>
+  </si>
+  <si>
+    <t>CD274 (PD-L1)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Warnings and Precautions, Adverse Reactions, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Atezolizumab (2)  </t>
+  </si>
+  <si>
+    <t>Gene Signature (T-effector)</t>
+  </si>
+  <si>
+    <t>Atezolizumab (3)</t>
+  </si>
+  <si>
+    <t>Atezolizumab (4)</t>
+  </si>
+  <si>
+    <t>Atezolizumab (5)</t>
+  </si>
+  <si>
+    <t>BRAF</t>
+  </si>
+  <si>
+    <t>Avapritinib (1)</t>
+  </si>
+  <si>
+    <t>PDGFRA</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Avapritinib (2)</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>Avelumab</t>
+  </si>
+  <si>
+    <t>Belinostat</t>
+  </si>
+  <si>
+    <t>UGT1A1</t>
+  </si>
+  <si>
+    <t>Dosage and Administration, Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>Binimetinib (1)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Warnings and Precautions, Adverse Reactions, Use in Specific Populations, Clinical Studies  </t>
+  </si>
+  <si>
+    <t>Binimetinib (2)</t>
+  </si>
+  <si>
+    <t>Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>Blinatumomab (1)</t>
+  </si>
+  <si>
+    <t>BCR-ABL1 (Philadelphia chromosome)</t>
+  </si>
+  <si>
+    <t>Adverse Reactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Blinatumomab (2)</t>
+  </si>
+  <si>
+    <t>CD19</t>
+  </si>
+  <si>
+    <t>Indications and Usage</t>
+  </si>
+  <si>
+    <t>Bosutinib</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Warnings and Precautions, Adverse Reactions, Use in Specific Populations, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Brentuximab Vedotin (1)</t>
+  </si>
+  <si>
+    <t>Brentuximab Vedotin (2)</t>
+  </si>
+  <si>
+    <t>TNFRSF8 (CD30)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Adverse Reactions, Use in Specific Populations, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Brigatinib</t>
+  </si>
+  <si>
+    <t>Busulfan</t>
+  </si>
+  <si>
+    <t>Cabozantinib</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>Capmatinib</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>Capecitabine</t>
+  </si>
+  <si>
+    <t>DPYD</t>
+  </si>
+  <si>
+    <t>Warnings and Precautions, Patient Counseling Information</t>
+  </si>
+  <si>
+    <t>Cemiplimab-rwlc (1)</t>
+  </si>
+  <si>
+    <t>Cemiplimab-rwlc (2)</t>
+  </si>
+  <si>
+    <t>Cemiplimab-rwlc (3)</t>
+  </si>
+  <si>
+    <t>Cemiplimab-rwlc (4)</t>
+  </si>
+  <si>
+    <t>ROS1</t>
+  </si>
+  <si>
+    <t>Ceritinib</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Warning and Precautions, Adverse Reactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Cetuximab (1)</t>
+  </si>
+  <si>
+    <t>Cetuximab (2)</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Warnings and Precautions, Adverse Reactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Cisplatin</t>
+  </si>
+  <si>
+    <t>TPMT</t>
+  </si>
+  <si>
+    <t>Adverse Reactions</t>
+  </si>
+  <si>
+    <t>Cobimetinib</t>
+  </si>
+  <si>
+    <t>Crizotinib (1)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Adverse Reactions, Use in Specific Populations, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Crizotinib (2)</t>
+  </si>
+  <si>
+    <t>Dabrafenib (1)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Warnings and Precautions, Adverse Reactions, Clinical Pharmacology, Clinical Studies, Patient Counseling Information</t>
+  </si>
+  <si>
+    <t>Dabrafenib (2)</t>
+  </si>
+  <si>
+    <t>G6PD</t>
+  </si>
+  <si>
+    <t>Warnings and Precautions, Adverse Reactions, Patient Counseling Information</t>
+  </si>
+  <si>
+    <t>Dabrafenib (3)</t>
+  </si>
+  <si>
+    <t>Dosage and Administration, Warnings and Precautions</t>
+  </si>
+  <si>
+    <t>Dacomitinib</t>
+  </si>
+  <si>
+    <t>Dasatinib</t>
+  </si>
+  <si>
+    <t>Denileukin Diftitox</t>
+  </si>
+  <si>
+    <t>IL2RA (CD25 antigen)</t>
+  </si>
+  <si>
+    <t>Dinutuximab</t>
+  </si>
+  <si>
+    <t>MYCN</t>
+  </si>
+  <si>
+    <t>Docetaxel</t>
+  </si>
+  <si>
+    <t>Dostarlimab-gxly</t>
+  </si>
+  <si>
+    <t>Mismatch Repair</t>
+  </si>
+  <si>
+    <t>Durvalumab</t>
+  </si>
+  <si>
+    <t>Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Duvelisib</t>
+  </si>
+  <si>
+    <t>Chromosome 17p</t>
+  </si>
+  <si>
+    <t>Enasidenib</t>
+  </si>
+  <si>
+    <t>IDH2</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Encorafenib (1)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Warnings and Precautions, Adverse Reactions, Use in Specific Populations, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Encorafenib (2)</t>
+  </si>
+  <si>
+    <t>Dosage and Administration, Warnings and Precautions, Clinical Studies  </t>
+  </si>
+  <si>
+    <t>Enfortumab Vedotin-ejfv</t>
+  </si>
+  <si>
+    <t>NECTIN4</t>
+  </si>
+  <si>
+    <t>Entrectinib (1)</t>
+  </si>
+  <si>
+    <t>Entrectinib (2)</t>
+  </si>
+  <si>
+    <t>NTRK</t>
+  </si>
+  <si>
+    <t>Erdafitinib (1)</t>
+  </si>
+  <si>
+    <t>FGFR</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Adverse Reactions, Clinical Studies, Patient Counseling Information</t>
+  </si>
+  <si>
+    <t>Erdafitinib (2) </t>
+  </si>
+  <si>
+    <t>CYP2C9</t>
+  </si>
+  <si>
+    <t>Use in Specific Populations, Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>Eribulin (1)</t>
+  </si>
+  <si>
+    <t>Eribulin (2)</t>
+  </si>
+  <si>
+    <t>Erlotinib</t>
+  </si>
+  <si>
+    <t>Everolimus (1)</t>
+  </si>
+  <si>
+    <t>Everolimus (2)</t>
+  </si>
+  <si>
+    <t>Exemestane</t>
+  </si>
+  <si>
+    <t>Fam-Trastuzumab Deruxtecan-nxki</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Warnings and Precautions, Adverse Reactions, Use in Specific Populations, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Fluorouracil (2)</t>
+  </si>
+  <si>
+    <t>Flutamide</t>
+  </si>
+  <si>
+    <t>Fulvestrant (1)</t>
+  </si>
+  <si>
+    <t>Fulvestrant (2)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Adverse Reactions, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Gefitinib (1)</t>
+  </si>
+  <si>
+    <t>Gefitinib (2)</t>
+  </si>
+  <si>
+    <t>CYP2D6</t>
+  </si>
+  <si>
+    <t>Gemtuzumab Ozogamicin</t>
+  </si>
+  <si>
+    <t>Onoclogy</t>
+  </si>
+  <si>
+    <t>CD33</t>
+  </si>
+  <si>
+    <t>Gilteritinib</t>
+  </si>
+  <si>
+    <t>FLT3</t>
+  </si>
+  <si>
+    <t>Goserelin</t>
+  </si>
+  <si>
+    <t>Ibrutinib (1)</t>
+  </si>
+  <si>
+    <t>Ibrutinib (2)</t>
+  </si>
+  <si>
+    <t>Chromosome 11q</t>
+  </si>
+  <si>
+    <t>Ibrutinib (3)</t>
+  </si>
+  <si>
+    <t>MYD88</t>
+  </si>
+  <si>
+    <t>Imatinib (1)</t>
+  </si>
+  <si>
+    <t>Imatinib (2)</t>
+  </si>
+  <si>
+    <t>Imatinib (3)</t>
+  </si>
+  <si>
+    <t>PDGFRB</t>
+  </si>
+  <si>
+    <t>Imatinib (4)</t>
+  </si>
+  <si>
+    <t>FIP1L1-PDGFRA</t>
+  </si>
+  <si>
+    <t>Infigratinib</t>
+  </si>
+  <si>
+    <t>FGFR2</t>
+  </si>
+  <si>
+    <t>Inotuzumab Ozogamicin</t>
+  </si>
+  <si>
+    <t>Ipilimumab (1)</t>
+  </si>
+  <si>
+    <t>HLA-A</t>
+  </si>
+  <si>
+    <t>Ipilimumab (2)</t>
+  </si>
+  <si>
+    <t>Microsatellite Instability, Mismatch Repair</t>
+  </si>
+  <si>
+    <t>Ipilimumab (3)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Use in Specific Populations, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Ipilimumab (4)</t>
+  </si>
+  <si>
+    <t>Ipilimumab (5)</t>
+  </si>
+  <si>
+    <t>Irinotecan</t>
+  </si>
+  <si>
+    <t>Dosage and Administration, Warnings and Precautions, Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>Isatuximab- irfc (1)</t>
+  </si>
+  <si>
+    <t>Isatuximab- irfc (2)</t>
+  </si>
+  <si>
+    <t>Chromosome 4p;14q</t>
+  </si>
+  <si>
+    <t>Isatuximab- irfc (3)</t>
+  </si>
+  <si>
+    <t>Chromosome 14q;16q</t>
+  </si>
+  <si>
+    <t>Ivosidenib</t>
+  </si>
+  <si>
+    <t>IDH1</t>
+  </si>
+  <si>
+    <t>Ixabepilone (1)</t>
+  </si>
+  <si>
+    <t>Ixabepilone (2)</t>
+  </si>
+  <si>
+    <t>Lapatinib (1)</t>
+  </si>
+  <si>
+    <t>Lapatinib (2)</t>
+  </si>
+  <si>
+    <t>Lapatinib (3)</t>
+  </si>
+  <si>
+    <t>HLA-DQA1</t>
+  </si>
+  <si>
+    <t>Lapatinib (4)</t>
+  </si>
+  <si>
+    <t>HLA-DRB1</t>
+  </si>
+  <si>
+    <t>Larotrectinib</t>
+  </si>
+  <si>
+    <t>Lenvatinib</t>
+  </si>
+  <si>
+    <t>Letrozole</t>
+  </si>
+  <si>
+    <t>Lorlatinib (1)</t>
+  </si>
+  <si>
+    <t>Lorlatinib (2)</t>
+  </si>
+  <si>
+    <t>Lutetium Dotatate Lu-177</t>
+  </si>
+  <si>
+    <t>SSTR </t>
+  </si>
+  <si>
+    <t>Margetuximab-cmkb (1)</t>
+  </si>
+  <si>
+    <t>Margetuximab-cmkb (2)</t>
+  </si>
+  <si>
+    <t>FCGR2A (CD32A)</t>
+  </si>
+  <si>
+    <t>Margetuximab-cmkb (3)</t>
+  </si>
+  <si>
+    <t>FCGR2B (CD32B)</t>
+  </si>
+  <si>
+    <t>Margetuximab-cmkb (4)</t>
+  </si>
+  <si>
+    <t>FCGR3A (CD16A)</t>
+  </si>
+  <si>
+    <t>Mercaptopurine (1)</t>
+  </si>
+  <si>
+    <t>Dosage and Administration, Warnings and Precautions, Adverse Reactions, Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>Mercaptopurine (2)</t>
+  </si>
+  <si>
+    <t>NUDT15</t>
+  </si>
+  <si>
+    <t>Midostaurin (1)</t>
+  </si>
+  <si>
+    <t>Midostaurin (2)</t>
+  </si>
+  <si>
+    <t>NPM1</t>
+  </si>
+  <si>
+    <t>Midostaurin (3)</t>
+  </si>
+  <si>
+    <t>Neratinib (1)</t>
+  </si>
+  <si>
+    <t>Neratinib (2)</t>
+  </si>
+  <si>
+    <t>Nilotinib (1)</t>
+  </si>
+  <si>
+    <t>Nilotinib (2)</t>
+  </si>
+  <si>
+    <t>Niraparib</t>
+  </si>
+  <si>
+    <t>Indication and Usage, Dosage and Administration, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Nivolumab (1)</t>
+  </si>
+  <si>
+    <t>Nivolumab (2)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Use in Specific Populations, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Nivolumab (3)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Nivolumab (4)</t>
+  </si>
+  <si>
+    <t>Nivolumab (5)</t>
+  </si>
+  <si>
+    <t>Obinutuzumab</t>
+  </si>
+  <si>
+    <t>MS4A1 (CD20 antigen)</t>
+  </si>
+  <si>
+    <t>Olaparib (1)</t>
+  </si>
+  <si>
+    <t>Olaparib (2)</t>
+  </si>
+  <si>
+    <t>Olaparib (3)</t>
+  </si>
+  <si>
+    <t>Olaparib (4)</t>
+  </si>
+  <si>
+    <t>Olaparib (5)</t>
+  </si>
+  <si>
+    <t>Olaparib (6)</t>
+  </si>
+  <si>
+    <t>Olaratumab</t>
+  </si>
+  <si>
+    <t>Omacetaxine</t>
+  </si>
+  <si>
+    <t>Osimertinib</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Adverse Reactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Palbociclib (1)</t>
+  </si>
+  <si>
+    <t>Palbociclib (2)</t>
+  </si>
+  <si>
+    <t>Panitumumab (1)</t>
+  </si>
+  <si>
+    <t>Adverse Reactions, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Panitumumab (2)</t>
+  </si>
+  <si>
+    <t>Pazopanib (1)</t>
+  </si>
+  <si>
+    <t>Pazopanib (2)</t>
+  </si>
+  <si>
+    <t>Pembrolizumab (1)</t>
+  </si>
+  <si>
+    <t>Pembrolizumab (2)</t>
+  </si>
+  <si>
+    <t>Pembrolizumab (3)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Adverse Reactions, Use in Specific Populations, Clinical Studies  </t>
+  </si>
+  <si>
+    <t>Pembrolizumab (4)</t>
+  </si>
+  <si>
+    <t>Pembrolizumab (5)</t>
+  </si>
+  <si>
+    <t>Pembrolizumab (6)</t>
+  </si>
+  <si>
+    <t>Tumor Mutational Burden</t>
+  </si>
+  <si>
+    <t>Pembrolizumab (7)</t>
+  </si>
+  <si>
+    <t>Pemigatinib</t>
+  </si>
+  <si>
+    <t>Pertuzumab (1)</t>
+  </si>
+  <si>
+    <t>Pertuzumab (2)</t>
+  </si>
+  <si>
+    <t>Ponatinib</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Warnings and Precautions, Adverse Reactions, Use in Specific Populations, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Pralsetinib</t>
+  </si>
+  <si>
+    <t>CCDC6-RET, KIF5B-RET,  RET</t>
+  </si>
+  <si>
+    <t>Raloxifene</t>
+  </si>
+  <si>
+    <t>Ramucirumab (1)</t>
+  </si>
+  <si>
+    <t>Ramucirumab (2)</t>
+  </si>
+  <si>
+    <t>Rasburicase (1)</t>
+  </si>
+  <si>
+    <t>Boxed Warning, Contraindications, Warnings and Precautions</t>
+  </si>
+  <si>
+    <t>Rasburicase (2)</t>
+  </si>
+  <si>
+    <t>CYB5R</t>
+  </si>
+  <si>
+    <t>Regorafenib</t>
+  </si>
+  <si>
+    <t>Ribociclib (1)</t>
+  </si>
+  <si>
+    <t>Ribociclib (2)</t>
+  </si>
+  <si>
+    <t>Rituximab</t>
+  </si>
+  <si>
+    <t>Rucaparib (1)</t>
+  </si>
+  <si>
+    <t>Rucaparib (2)</t>
+  </si>
+  <si>
+    <t>Rucaparib (3)</t>
+  </si>
+  <si>
+    <t>CYP1A2</t>
+  </si>
+  <si>
+    <t>Rucaparib (4)</t>
+  </si>
+  <si>
+    <t>BRCA, Loss of Heterozygosity (Homologous Recombination Deficiency)</t>
+  </si>
+  <si>
+    <t>Warnings and Precautions, Adverse Reactions, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Sacituzumab Govitecan-hziy</t>
+  </si>
+  <si>
+    <t>Warnings and Precautions, Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>Selpercatinib</t>
+  </si>
+  <si>
+    <t>Sotorasib</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>Indication and Usage, Dosage and Administration, Adverse Reactions, Clinical Pharmacology, Clinical Studies</t>
+  </si>
+  <si>
+    <t>Talazoparib (1)</t>
+  </si>
+  <si>
+    <t>Talazoparib (2)</t>
+  </si>
+  <si>
+    <t>Tamoxifen (1)</t>
+  </si>
+  <si>
+    <t>Tamoxifen (2)</t>
+  </si>
+  <si>
+    <t>F5 (Factor V Leiden)</t>
+  </si>
+  <si>
+    <t>Warnings and Precautions</t>
+  </si>
+  <si>
+    <t>Tamoxifen (3)</t>
+  </si>
+  <si>
+    <t>F2 (Prothrombin)</t>
+  </si>
+  <si>
+    <t>Tamoxifen (4)</t>
+  </si>
+  <si>
+    <t>Tepotinib (1)</t>
+  </si>
+  <si>
+    <t>Tepotinib (2)</t>
+  </si>
+  <si>
+    <t>Tepotinib (3)</t>
+  </si>
+  <si>
+    <t>Thioguanine (1)</t>
+  </si>
+  <si>
+    <t>Dosage and Administration, Warnings, Precautions, Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>Thioguanine (2)</t>
+  </si>
+  <si>
+    <t>Tipiracil and Trifluridine (1)</t>
+  </si>
+  <si>
+    <t>Tipiracil and Trifluridine (2)</t>
+  </si>
+  <si>
+    <t>Toremifene</t>
+  </si>
+  <si>
+    <t>Trametinib (1)</t>
+  </si>
+  <si>
+    <t>Trametinib (2)</t>
+  </si>
+  <si>
+    <t>Trametinib (3)</t>
+  </si>
+  <si>
+    <t>Trastuzumab (1)</t>
+  </si>
+  <si>
+    <t>Trastuzumab (2)</t>
+  </si>
+  <si>
+    <t>Tretinoin</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Warnings, Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>Tucatinib</t>
+  </si>
+  <si>
+    <t>Vemurafenib (1)</t>
+  </si>
+  <si>
+    <t>Indications and Usage, Dosage and Administration, Warnings and Precautions, Adverse Reactions, Use in Specific Populations, Clinical Pharmacology, Clinical Studies, Patient Counseling Information</t>
+  </si>
+  <si>
+    <t>Vemurafenib (2)</t>
+  </si>
+  <si>
+    <t>Warnings and Precautions, Adverse Reactions</t>
+  </si>
+  <si>
+    <t>Venetoclax (1)</t>
+  </si>
+  <si>
+    <t>Venetoclax (2)</t>
+  </si>
+  <si>
+    <t>Venetoclax (3)</t>
+  </si>
+  <si>
+    <t>TP53</t>
+  </si>
+  <si>
+    <t>Venetoclax (4)</t>
+  </si>
+  <si>
+    <t>Venetoclax (5)</t>
+  </si>
+  <si>
+    <t>Venetoclax (6)</t>
+  </si>
+  <si>
+    <t>IGH</t>
+  </si>
+  <si>
+    <t>Venetoclax (7)</t>
+  </si>
+  <si>
+    <t>Venetoclax (8)</t>
+  </si>
+  <si>
+    <t>Vincristine</t>
+  </si>
+  <si>
+    <t>Rubraca (rucaparib)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDA </t>
+  </si>
+  <si>
+    <t>Zejula (niraparib)</t>
+  </si>
+  <si>
+    <t>Iressa (gefitinib)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGFR </t>
+  </si>
+  <si>
+    <t>Gilotrif (afatinib)</t>
+  </si>
+  <si>
+    <t>Vizimpro (dacomitinib)</t>
+  </si>
+  <si>
+    <t>EGFR exon 19 deletions</t>
+  </si>
+  <si>
+    <t>EGFR exon 21(L858R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissue </t>
+  </si>
+  <si>
+    <t>"identifying patients with NSCLC whose tumors have EGFR exon 19 deletions or exon 21 (L858R) substitution mutations and are suitable for treatment with a tyrosine kinase inhibitor approved by FDA for that indication"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissue - tyrosine kinase inhibitor </t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarceva (erlotinib) - 
+Tagrisso; (osimertinib) - 
+Iressa; (gefitinib) - 
+Gilotrif; (afatinib)- 
+Vizimpro </t>
+  </si>
+  <si>
+    <t>Tarceva (erlotinib) -
+Tagrisso (osimertinib) -
+Iressa (gefitinib)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasma - tyrosine kinase inhibitor </t>
+  </si>
+  <si>
+    <t>EGFR T790M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasma </t>
+  </si>
+  <si>
+    <t>Tagrisso (osimertinib) </t>
+  </si>
+  <si>
+    <t>KEYTRUDA (pembrolizumab) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumor Mutational Burden </t>
+  </si>
+  <si>
+    <t>Libtayo (cemiplimab-rwlc)</t>
+  </si>
+  <si>
+    <t>Gilotrif (afatinib) </t>
+  </si>
+  <si>
+    <t>Tarceva (erlotinib)</t>
+  </si>
+  <si>
+    <t>Alecensa (alectinib)</t>
+  </si>
+  <si>
+    <t>Xalkori (crizotinib)</t>
+  </si>
+  <si>
+    <t>Zykadia (ceritinib)</t>
+  </si>
+  <si>
+    <t>Tafinlar (dabrafenib) in combination with Mekinist (trametinib)</t>
+  </si>
+  <si>
+    <t>Tabrecta (capmatinib)</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S022</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S023</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S024</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S025</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S026</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S027</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S028</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S029</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S030</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S031</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S032</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S033</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S034</t>
+  </si>
+  <si>
+    <t>P170019
+P170019/S004
+P170019/S006
+P170019/S008
+P170019/S011
+P170019/S013
+P170019/S015
+P170019/S016
+P170019/S017
+P170019/S035</t>
+  </si>
+  <si>
+    <t>P160045
+P160045/S019
+P160045/S028
+P160045/S030</t>
+  </si>
+  <si>
+    <t>P160045
+P160045/S019
+P160045/S028
+P160045/S031</t>
+  </si>
+  <si>
+    <t>P160045
+P160045/S019
+P160045/S028
+P160045/S032</t>
+  </si>
+  <si>
+    <t>P160045
+P160045/S019
+P160045/S028
+P160045/S033</t>
+  </si>
+  <si>
+    <t>Iressa (gefitinib) </t>
+  </si>
+  <si>
+    <t>Gavreto (pralsetinib)</t>
+  </si>
+  <si>
+    <t>CCDC6-RET</t>
+  </si>
+  <si>
+    <t>KIF5B-RET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -868,6 +2283,57 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1211,7 +2677,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1220,6 +2686,34 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1267,6 +2761,24 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1285,24 +2797,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1317,14 +2811,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:E50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Diagnostic Name" dataDxfId="6"/>
-    <tableColumn id="2" name="PMA/ 510(k)/ HDE" dataDxfId="5"/>
-    <tableColumn id="3" name="Diagnostic Manufacturer" dataDxfId="4"/>
-    <tableColumn id="4" name="Indication(s) Trade Name (Generic) - NDA/BLA" dataDxfId="3"/>
-    <tableColumn id="5" name="Device Indication for a Specific Group of Oncology Therapeutic Products and Trade Name (Generic) – NDA/BLA" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Diagnostic Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PMA/ 510(k)/ HDE" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Diagnostic Manufacturer" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Indication(s) Trade Name (Generic) - NDA/BLA" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Device Indication for a Specific Group of Oncology Therapeutic Products and Trade Name (Generic) – NDA/BLA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1626,11 +3120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2396,4 +3890,5199 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B02C4B-16AF-0944-BDB7-82C5476DF6F5}">
+  <dimension ref="A1:K69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17">
+      <c r="A1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51">
+      <c r="A2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="34">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="34">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="85">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="51">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="34">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="170">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="34">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="34">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="51">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="51">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="51">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="34">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="34">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="51">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="34">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="34">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="102">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="51">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="34">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="102">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="85">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="85">
+      <c r="A30" s="7"/>
+      <c r="E30" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="51">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="34">
+      <c r="A32" s="7"/>
+      <c r="F32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="102">
+      <c r="A33" s="7"/>
+      <c r="F33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="68">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="51">
+      <c r="F35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="119">
+      <c r="F36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="51">
+      <c r="B37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="34">
+      <c r="F38" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="34">
+      <c r="F39" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="51">
+      <c r="B40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="34">
+      <c r="F41" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="34">
+      <c r="F42" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="51">
+      <c r="D43" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="51">
+      <c r="B44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="34">
+      <c r="F45" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="34">
+      <c r="F46" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="51">
+      <c r="D47" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="68">
+      <c r="B48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="34">
+      <c r="F49" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="34">
+      <c r="F50" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="34">
+      <c r="D51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="34">
+      <c r="D52" s="8"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="34">
+      <c r="D53" s="8"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="51">
+      <c r="D54" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="51">
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="51">
+      <c r="F56" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="51">
+      <c r="F57" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="51">
+      <c r="F58" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="51">
+      <c r="F59" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="51">
+      <c r="B60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="34">
+      <c r="F61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="34">
+      <c r="F62" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="68">
+      <c r="B63" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="51">
+      <c r="F64" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="51">
+      <c r="F65" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="51">
+      <c r="F66" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="51">
+      <c r="F67" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="51">
+      <c r="B68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="51">
+      <c r="F69" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C598DCA-5A3E-3341-89D5-6D240ABE52CC}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17">
+      <c r="A1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="F3" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34">
+      <c r="F4" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34">
+      <c r="F5" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="85">
+      <c r="F6" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51">
+      <c r="F7" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="F8" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34">
+      <c r="D9" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="F10" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="F11" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85">
+      <c r="F12" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="170">
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" t="s">
+        <v>541</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="F14" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="F15" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="85">
+      <c r="F16" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="34">
+      <c r="D17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17">
+      <c r="F18" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="34">
+      <c r="F19" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="34">
+      <c r="F20" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="85">
+      <c r="F21" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="51">
+      <c r="F22" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17">
+      <c r="F23" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="34">
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E24" t="s">
+        <v>541</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="17">
+      <c r="F25" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="F26" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="85">
+      <c r="F27" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="34">
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="17">
+      <c r="F29" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="34">
+      <c r="F30" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="34">
+      <c r="F31" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="85">
+      <c r="F32" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="51">
+      <c r="F33" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="17">
+      <c r="F34" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="85">
+      <c r="D35" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="68">
+      <c r="B36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E36" t="s">
+        <v>541</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="17">
+      <c r="F37" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="17">
+      <c r="F38" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="85">
+      <c r="F39" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0753A80B-1B41-4C4A-8D2D-35E44AC9B481}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="34">
+      <c r="A1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="D3" s="3"/>
+      <c r="F3" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51">
+      <c r="D4" s="3"/>
+      <c r="F4" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51">
+      <c r="D5" s="3"/>
+      <c r="F5" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="136">
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="68">
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="D8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA5D4B-BA53-264F-B83D-FFA774EA7041}">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="20.6640625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="34">
+      <c r="A1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="68">
+      <c r="A2" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17">
+      <c r="F3" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="85">
+      <c r="D4" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="85">
+      <c r="A5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="187">
+      <c r="A6" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="187">
+      <c r="F7" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="187">
+      <c r="F8" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="187">
+      <c r="D9" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="187">
+      <c r="E10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68">
+      <c r="E11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68">
+      <c r="D12" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="136">
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="102">
+      <c r="D14" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="102">
+      <c r="D15" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
+      <c r="D16" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51">
+      <c r="D17" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68">
+      <c r="D18" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51">
+      <c r="D19" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34">
+      <c r="D20" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="68">
+      <c r="D21" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34">
+      <c r="D22" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34">
+      <c r="D23" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="170">
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="170">
+      <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="170">
+      <c r="B26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="170">
+      <c r="B27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="170">
+      <c r="A28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="170">
+      <c r="B29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="170">
+      <c r="B30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="170">
+      <c r="B31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="170">
+      <c r="B32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="170">
+      <c r="B33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="170">
+      <c r="B34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="170">
+      <c r="B35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="170">
+      <c r="B36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="170">
+      <c r="B37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="170">
+      <c r="B38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="153">
+      <c r="A39" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="85">
+      <c r="A40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="85">
+      <c r="A41" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="209">
+      <c r="A42" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" ht="171">
+      <c r="A43" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="95">
+      <c r="D44" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="38">
+      <c r="D45" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="209">
+      <c r="D46" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="209">
+      <c r="D47" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="209">
+      <c r="D48" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AD747F-0BC4-0748-82D2-B3FFEE53623A}">
+  <dimension ref="A1:D207"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="59.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>302</v>
+      </c>
+      <c r="B43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>311</v>
+      </c>
+      <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>314</v>
+      </c>
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>315</v>
+      </c>
+      <c r="B51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>319</v>
+      </c>
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>321</v>
+      </c>
+      <c r="D54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" t="s">
+        <v>327</v>
+      </c>
+      <c r="D57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>334</v>
+      </c>
+      <c r="D60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" t="s">
+        <v>337</v>
+      </c>
+      <c r="D62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>338</v>
+      </c>
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" t="s">
+        <v>339</v>
+      </c>
+      <c r="D63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>347</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>348</v>
+      </c>
+      <c r="B69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>349</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>350</v>
+      </c>
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>357</v>
+      </c>
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>358</v>
+      </c>
+      <c r="B77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" t="s">
+        <v>359</v>
+      </c>
+      <c r="D77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B78" t="s">
+        <v>361</v>
+      </c>
+      <c r="C78" t="s">
+        <v>362</v>
+      </c>
+      <c r="D78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" t="s">
+        <v>364</v>
+      </c>
+      <c r="D79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>365</v>
+      </c>
+      <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>366</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>325</v>
+      </c>
+      <c r="D81" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>367</v>
+      </c>
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" t="s">
+        <v>368</v>
+      </c>
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>369</v>
+      </c>
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" t="s">
+        <v>370</v>
+      </c>
+      <c r="D83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>371</v>
+      </c>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>372</v>
+      </c>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>373</v>
+      </c>
+      <c r="B86" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D86" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>375</v>
+      </c>
+      <c r="B87" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" t="s">
+        <v>376</v>
+      </c>
+      <c r="D87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>377</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>378</v>
+      </c>
+      <c r="D88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>379</v>
+      </c>
+      <c r="B89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>380</v>
+      </c>
+      <c r="B90" t="s">
+        <v>221</v>
+      </c>
+      <c r="C90" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>382</v>
+      </c>
+      <c r="B91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" t="s">
+        <v>383</v>
+      </c>
+      <c r="D91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>384</v>
+      </c>
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>386</v>
+      </c>
+      <c r="B93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>387</v>
+      </c>
+      <c r="B94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>388</v>
+      </c>
+      <c r="B95" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" t="s">
+        <v>261</v>
+      </c>
+      <c r="D95" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>391</v>
+      </c>
+      <c r="B97" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" t="s">
+        <v>392</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>393</v>
+      </c>
+      <c r="B98" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" t="s">
+        <v>394</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>395</v>
+      </c>
+      <c r="B99" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" t="s">
+        <v>396</v>
+      </c>
+      <c r="D99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>397</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" t="s">
+        <v>224</v>
+      </c>
+      <c r="D100" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>398</v>
+      </c>
+      <c r="B101" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>399</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>400</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" t="s">
+        <v>240</v>
+      </c>
+      <c r="D103" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s">
+        <v>402</v>
+      </c>
+      <c r="D104" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>403</v>
+      </c>
+      <c r="B105" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" t="s">
+        <v>404</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>405</v>
+      </c>
+      <c r="B106" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>406</v>
+      </c>
+      <c r="B107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>407</v>
+      </c>
+      <c r="B108" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" t="s">
+        <v>240</v>
+      </c>
+      <c r="D108" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>408</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" t="s">
+        <v>231</v>
+      </c>
+      <c r="D109" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>409</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="s">
+        <v>292</v>
+      </c>
+      <c r="D110" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>410</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>411</v>
+      </c>
+      <c r="D111" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>412</v>
+      </c>
+      <c r="B112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>413</v>
+      </c>
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" t="s">
+        <v>414</v>
+      </c>
+      <c r="D113" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" t="s">
+        <v>416</v>
+      </c>
+      <c r="D114" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>417</v>
+      </c>
+      <c r="B115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" t="s">
+        <v>418</v>
+      </c>
+      <c r="D115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" t="s">
+        <v>300</v>
+      </c>
+      <c r="D116" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>421</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" t="s">
+        <v>422</v>
+      </c>
+      <c r="D117" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>423</v>
+      </c>
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>424</v>
+      </c>
+      <c r="B119" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" t="s">
+        <v>425</v>
+      </c>
+      <c r="D119" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>426</v>
+      </c>
+      <c r="B120" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>427</v>
+      </c>
+      <c r="B121" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" t="s">
+        <v>224</v>
+      </c>
+      <c r="D121" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>428</v>
+      </c>
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>429</v>
+      </c>
+      <c r="B123" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>430</v>
+      </c>
+      <c r="B124" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" t="s">
+        <v>261</v>
+      </c>
+      <c r="D124" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>431</v>
+      </c>
+      <c r="B125" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>433</v>
+      </c>
+      <c r="B126" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>434</v>
+      </c>
+      <c r="B127" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" t="s">
+        <v>246</v>
+      </c>
+      <c r="D127" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>436</v>
+      </c>
+      <c r="B128" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" t="s">
+        <v>383</v>
+      </c>
+      <c r="D128" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>438</v>
+      </c>
+      <c r="B129" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>439</v>
+      </c>
+      <c r="B130" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" t="s">
+        <v>231</v>
+      </c>
+      <c r="D130" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>439</v>
+      </c>
+      <c r="B131" t="s">
+        <v>221</v>
+      </c>
+      <c r="C131" t="s">
+        <v>224</v>
+      </c>
+      <c r="D131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>440</v>
+      </c>
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" t="s">
+        <v>441</v>
+      </c>
+      <c r="D132" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>442</v>
+      </c>
+      <c r="B133" t="s">
+        <v>221</v>
+      </c>
+      <c r="C133" t="s">
+        <v>191</v>
+      </c>
+      <c r="D133" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>443</v>
+      </c>
+      <c r="B134" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" t="s">
+        <v>224</v>
+      </c>
+      <c r="D134" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>444</v>
+      </c>
+      <c r="B135" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" t="s">
+        <v>240</v>
+      </c>
+      <c r="D135" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>445</v>
+      </c>
+      <c r="B136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" t="s">
+        <v>195</v>
+      </c>
+      <c r="D136" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>446</v>
+      </c>
+      <c r="B137" t="s">
+        <v>221</v>
+      </c>
+      <c r="C137" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>447</v>
+      </c>
+      <c r="B138" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" t="s">
+        <v>197</v>
+      </c>
+      <c r="D138" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>448</v>
+      </c>
+      <c r="B139" t="s">
+        <v>221</v>
+      </c>
+      <c r="C139" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>449</v>
+      </c>
+      <c r="B140" t="s">
+        <v>221</v>
+      </c>
+      <c r="C140" t="s">
+        <v>268</v>
+      </c>
+      <c r="D140" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>450</v>
+      </c>
+      <c r="B141" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>452</v>
+      </c>
+      <c r="B142" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" t="s">
+        <v>194</v>
+      </c>
+      <c r="D142" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>453</v>
+      </c>
+      <c r="B143" t="s">
+        <v>221</v>
+      </c>
+      <c r="C143" t="s">
+        <v>224</v>
+      </c>
+      <c r="D143" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>454</v>
+      </c>
+      <c r="B144" t="s">
+        <v>221</v>
+      </c>
+      <c r="C144" t="s">
+        <v>228</v>
+      </c>
+      <c r="D144" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>456</v>
+      </c>
+      <c r="B145" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145" t="s">
+        <v>297</v>
+      </c>
+      <c r="D145" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>457</v>
+      </c>
+      <c r="B146" t="s">
+        <v>221</v>
+      </c>
+      <c r="C146" t="s">
+        <v>261</v>
+      </c>
+      <c r="D146" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>458</v>
+      </c>
+      <c r="B147" t="s">
+        <v>221</v>
+      </c>
+      <c r="C147" t="s">
+        <v>233</v>
+      </c>
+      <c r="D147" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>459</v>
+      </c>
+      <c r="B148" t="s">
+        <v>221</v>
+      </c>
+      <c r="C148" t="s">
+        <v>253</v>
+      </c>
+      <c r="D148" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>460</v>
+      </c>
+      <c r="B149" t="s">
+        <v>221</v>
+      </c>
+      <c r="C149" t="s">
+        <v>246</v>
+      </c>
+      <c r="D149" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>461</v>
+      </c>
+      <c r="B150" t="s">
+        <v>221</v>
+      </c>
+      <c r="C150" t="s">
+        <v>383</v>
+      </c>
+      <c r="D150" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>463</v>
+      </c>
+      <c r="B151" t="s">
+        <v>221</v>
+      </c>
+      <c r="C151" t="s">
+        <v>228</v>
+      </c>
+      <c r="D151" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>464</v>
+      </c>
+      <c r="B152" t="s">
+        <v>221</v>
+      </c>
+      <c r="C152" t="s">
+        <v>231</v>
+      </c>
+      <c r="D152" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>465</v>
+      </c>
+      <c r="B153" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" t="s">
+        <v>466</v>
+      </c>
+      <c r="D153" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>467</v>
+      </c>
+      <c r="B154" t="s">
+        <v>221</v>
+      </c>
+      <c r="C154" t="s">
+        <v>224</v>
+      </c>
+      <c r="D154" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>468</v>
+      </c>
+      <c r="B155" t="s">
+        <v>221</v>
+      </c>
+      <c r="C155" t="s">
+        <v>378</v>
+      </c>
+      <c r="D155" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>469</v>
+      </c>
+      <c r="B156" t="s">
+        <v>221</v>
+      </c>
+      <c r="C156" t="s">
+        <v>224</v>
+      </c>
+      <c r="D156" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>470</v>
+      </c>
+      <c r="B157" t="s">
+        <v>221</v>
+      </c>
+      <c r="C157" t="s">
+        <v>240</v>
+      </c>
+      <c r="D157" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>471</v>
+      </c>
+      <c r="B158" t="s">
+        <v>221</v>
+      </c>
+      <c r="C158" t="s">
+        <v>268</v>
+      </c>
+      <c r="D158" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>473</v>
+      </c>
+      <c r="B159" t="s">
+        <v>221</v>
+      </c>
+      <c r="C159" t="s">
+        <v>474</v>
+      </c>
+      <c r="D159" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>475</v>
+      </c>
+      <c r="B160" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" t="s">
+        <v>194</v>
+      </c>
+      <c r="D160" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" t="s">
+        <v>221</v>
+      </c>
+      <c r="C161" t="s">
+        <v>228</v>
+      </c>
+      <c r="D161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>477</v>
+      </c>
+      <c r="B162" t="s">
+        <v>221</v>
+      </c>
+      <c r="C162" t="s">
+        <v>297</v>
+      </c>
+      <c r="D162" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>478</v>
+      </c>
+      <c r="B163" t="s">
+        <v>221</v>
+      </c>
+      <c r="C163" t="s">
+        <v>309</v>
+      </c>
+      <c r="D163" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>480</v>
+      </c>
+      <c r="B164" t="s">
+        <v>221</v>
+      </c>
+      <c r="C164" t="s">
+        <v>481</v>
+      </c>
+      <c r="D164" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>482</v>
+      </c>
+      <c r="B165" t="s">
+        <v>221</v>
+      </c>
+      <c r="C165" t="s">
+        <v>297</v>
+      </c>
+      <c r="D165" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>483</v>
+      </c>
+      <c r="B166" t="s">
+        <v>221</v>
+      </c>
+      <c r="C166" t="s">
+        <v>240</v>
+      </c>
+      <c r="D166" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>484</v>
+      </c>
+      <c r="B167" t="s">
+        <v>221</v>
+      </c>
+      <c r="C167" t="s">
+        <v>224</v>
+      </c>
+      <c r="D167" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>485</v>
+      </c>
+      <c r="B168" t="s">
+        <v>221</v>
+      </c>
+      <c r="C168" t="s">
+        <v>441</v>
+      </c>
+      <c r="D168" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>486</v>
+      </c>
+      <c r="B169" t="s">
+        <v>221</v>
+      </c>
+      <c r="C169" t="s">
+        <v>191</v>
+      </c>
+      <c r="D169" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>487</v>
+      </c>
+      <c r="B170" t="s">
+        <v>221</v>
+      </c>
+      <c r="C170" t="s">
+        <v>359</v>
+      </c>
+      <c r="D170" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>488</v>
+      </c>
+      <c r="B171" t="s">
+        <v>221</v>
+      </c>
+      <c r="C171" t="s">
+        <v>489</v>
+      </c>
+      <c r="D171" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>490</v>
+      </c>
+      <c r="B172" t="s">
+        <v>221</v>
+      </c>
+      <c r="C172" t="s">
+        <v>491</v>
+      </c>
+      <c r="D172" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>493</v>
+      </c>
+      <c r="B173" t="s">
+        <v>221</v>
+      </c>
+      <c r="C173" t="s">
+        <v>261</v>
+      </c>
+      <c r="D173" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>495</v>
+      </c>
+      <c r="B174" t="s">
+        <v>221</v>
+      </c>
+      <c r="C174" t="s">
+        <v>282</v>
+      </c>
+      <c r="D174" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>496</v>
+      </c>
+      <c r="B175" t="s">
+        <v>221</v>
+      </c>
+      <c r="C175" t="s">
+        <v>497</v>
+      </c>
+      <c r="D175" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>499</v>
+      </c>
+      <c r="B176" t="s">
+        <v>221</v>
+      </c>
+      <c r="C176" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>500</v>
+      </c>
+      <c r="B177" t="s">
+        <v>221</v>
+      </c>
+      <c r="C177" t="s">
+        <v>224</v>
+      </c>
+      <c r="D177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>501</v>
+      </c>
+      <c r="B178" t="s">
+        <v>221</v>
+      </c>
+      <c r="C178" t="s">
+        <v>240</v>
+      </c>
+      <c r="D178" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>502</v>
+      </c>
+      <c r="B179" t="s">
+        <v>221</v>
+      </c>
+      <c r="C179" t="s">
+        <v>503</v>
+      </c>
+      <c r="D179" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>505</v>
+      </c>
+      <c r="B180" t="s">
+        <v>221</v>
+      </c>
+      <c r="C180" t="s">
+        <v>506</v>
+      </c>
+      <c r="D180" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>507</v>
+      </c>
+      <c r="B181" t="s">
+        <v>221</v>
+      </c>
+      <c r="C181" t="s">
+        <v>359</v>
+      </c>
+      <c r="D181" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>508</v>
+      </c>
+      <c r="B182" t="s">
+        <v>221</v>
+      </c>
+      <c r="C182" t="s">
+        <v>231</v>
+      </c>
+      <c r="D182" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>509</v>
+      </c>
+      <c r="B183" t="s">
+        <v>221</v>
+      </c>
+      <c r="C183" t="s">
+        <v>228</v>
+      </c>
+      <c r="D183" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>510</v>
+      </c>
+      <c r="B184" t="s">
+        <v>221</v>
+      </c>
+      <c r="C184" t="s">
+        <v>284</v>
+      </c>
+      <c r="D184" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>511</v>
+      </c>
+      <c r="B185" t="s">
+        <v>221</v>
+      </c>
+      <c r="C185" t="s">
+        <v>300</v>
+      </c>
+      <c r="D185" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>513</v>
+      </c>
+      <c r="B186" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" t="s">
+        <v>422</v>
+      </c>
+      <c r="D186" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>514</v>
+      </c>
+      <c r="B187" t="s">
+        <v>221</v>
+      </c>
+      <c r="C187" t="s">
+        <v>224</v>
+      </c>
+      <c r="D187" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>515</v>
+      </c>
+      <c r="B188" t="s">
+        <v>221</v>
+      </c>
+      <c r="C188" t="s">
+        <v>297</v>
+      </c>
+      <c r="D188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>516</v>
+      </c>
+      <c r="B189" t="s">
+        <v>221</v>
+      </c>
+      <c r="C189" t="s">
+        <v>194</v>
+      </c>
+      <c r="D189" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>517</v>
+      </c>
+      <c r="B190" t="s">
+        <v>221</v>
+      </c>
+      <c r="C190" t="s">
+        <v>253</v>
+      </c>
+      <c r="D190" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>518</v>
+      </c>
+      <c r="B191" t="s">
+        <v>221</v>
+      </c>
+      <c r="C191" t="s">
+        <v>309</v>
+      </c>
+      <c r="D191" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>519</v>
+      </c>
+      <c r="B192" t="s">
+        <v>221</v>
+      </c>
+      <c r="C192" t="s">
+        <v>297</v>
+      </c>
+      <c r="D192" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>520</v>
+      </c>
+      <c r="B193" t="s">
+        <v>221</v>
+      </c>
+      <c r="C193" t="s">
+        <v>224</v>
+      </c>
+      <c r="D193" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>521</v>
+      </c>
+      <c r="B194" t="s">
+        <v>221</v>
+      </c>
+      <c r="C194" t="s">
+        <v>240</v>
+      </c>
+      <c r="D194" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>522</v>
+      </c>
+      <c r="B195" t="s">
+        <v>221</v>
+      </c>
+      <c r="C195" t="s">
+        <v>243</v>
+      </c>
+      <c r="D195" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>524</v>
+      </c>
+      <c r="B196" t="s">
+        <v>221</v>
+      </c>
+      <c r="C196" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>525</v>
+      </c>
+      <c r="B197" t="s">
+        <v>221</v>
+      </c>
+      <c r="C197" t="s">
+        <v>253</v>
+      </c>
+      <c r="D197" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>527</v>
+      </c>
+      <c r="B198" t="s">
+        <v>221</v>
+      </c>
+      <c r="C198" t="s">
+        <v>297</v>
+      </c>
+      <c r="D198" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>529</v>
+      </c>
+      <c r="B199" t="s">
+        <v>221</v>
+      </c>
+      <c r="C199" t="s">
+        <v>325</v>
+      </c>
+      <c r="D199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>530</v>
+      </c>
+      <c r="B200" t="s">
+        <v>221</v>
+      </c>
+      <c r="C200" t="s">
+        <v>368</v>
+      </c>
+      <c r="D200" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>531</v>
+      </c>
+      <c r="B201" t="s">
+        <v>221</v>
+      </c>
+      <c r="C201" t="s">
+        <v>532</v>
+      </c>
+      <c r="D201" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>533</v>
+      </c>
+      <c r="B202" t="s">
+        <v>221</v>
+      </c>
+      <c r="C202" t="s">
+        <v>396</v>
+      </c>
+      <c r="D202" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>534</v>
+      </c>
+      <c r="B203" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" t="s">
+        <v>327</v>
+      </c>
+      <c r="D203" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>535</v>
+      </c>
+      <c r="B204" t="s">
+        <v>221</v>
+      </c>
+      <c r="C204" t="s">
+        <v>536</v>
+      </c>
+      <c r="D204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>537</v>
+      </c>
+      <c r="B205" t="s">
+        <v>221</v>
+      </c>
+      <c r="C205" t="s">
+        <v>425</v>
+      </c>
+      <c r="D205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>538</v>
+      </c>
+      <c r="B206" t="s">
+        <v>221</v>
+      </c>
+      <c r="C206" t="s">
+        <v>364</v>
+      </c>
+      <c r="D206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>539</v>
+      </c>
+      <c r="B207" t="s">
+        <v>221</v>
+      </c>
+      <c r="C207" t="s">
+        <v>268</v>
+      </c>
+      <c r="D207" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A208" xr:uid="{E7949CE3-8647-EC41-8E3B-6DB53F7BD0D6}"/>
+  <sortState ref="A2:D208">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>